--- a/SuppXLS/Scen_RES_SHARE_50%_7_24.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A5DA8-12D9-4E8A-B3DE-A5F29F6D04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE347763-1220-41AF-801D-E90C5A13383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="247">
   <si>
     <t>Year</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>ELC_IND_RES_SUM</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -5189,7 +5192,7 @@
   <dimension ref="A1:P231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5223,9 +5226,7 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="2" t="s">
@@ -5328,7 +5329,7 @@
         <v>2030</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="H7" s="11">
         <v>0.5</v>
